--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Course.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Course.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\sys\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96668C19-81C7-4A35-B254-AEC0C5CC5A92}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EAE03-2BDF-41CA-A8D1-0A1D3CFAF8BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
   <si>
     <t>course_id</t>
   </si>
@@ -51,13 +51,487 @@
   <si>
     <t>รหัส คอร์ส
 ความยาวไม่เกิน 10 ตัว</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>ไม่ระบุ</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>การบัญชี</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>General Admin</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>Jurisprudence</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>วิศวกรรมเครื่องกล</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>International of Business Admi</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>Electric power</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>พณิชยการ</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>รัฐประศาสนศาตรบัณฑิต</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>Control Engineering</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>วิศวอุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>Human Resource and Financial M</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีสารสนเทศ</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>Technology Education</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>ผู้ช่วยพยาบาล</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>Information of Technology</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>จิตวิทยาอุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>การจัดการทั่วไป</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>เศรษฐศาสตร์</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>Plastics Technology</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>ช่างอุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>ช่างเทคนิคการผลิต</t>
+  </si>
+  <si>
+    <t>027</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีเครื่องกล</t>
+  </si>
+  <si>
+    <t>028</t>
+  </si>
+  <si>
+    <t>การขาย</t>
+  </si>
+  <si>
+    <t>029</t>
+  </si>
+  <si>
+    <t>คหกรรม</t>
+  </si>
+  <si>
+    <t>030</t>
+  </si>
+  <si>
+    <t>คอมพิวเตอร์ธุรกิจ</t>
+  </si>
+  <si>
+    <t>031</t>
+  </si>
+  <si>
+    <t>วิทยาการคอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>032</t>
+  </si>
+  <si>
+    <t>สังคมวิทยาและมนุษยวิทยา</t>
+  </si>
+  <si>
+    <t>033</t>
+  </si>
+  <si>
+    <t>การัดการการผลิต</t>
+  </si>
+  <si>
+    <t>034</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีการจัดการ</t>
+  </si>
+  <si>
+    <t>065</t>
+  </si>
+  <si>
+    <t>ช่างไฟฟ้ากำลัง</t>
+  </si>
+  <si>
+    <t>066</t>
+  </si>
+  <si>
+    <t>ออกแบบผลิตภัณฑ์</t>
+  </si>
+  <si>
+    <t>067</t>
+  </si>
+  <si>
+    <t>การเลขานุการ</t>
+  </si>
+  <si>
+    <t>068</t>
+  </si>
+  <si>
+    <t>ภาษาอังกฤษ</t>
+  </si>
+  <si>
+    <t>069</t>
+  </si>
+  <si>
+    <t>ภาษาญี่ปุ่น</t>
+  </si>
+  <si>
+    <t>070</t>
+  </si>
+  <si>
+    <t>วิศวกรรมไฟฟ้า</t>
+  </si>
+  <si>
+    <t>071</t>
+  </si>
+  <si>
+    <t>ช่างยนต์</t>
+  </si>
+  <si>
+    <t>072</t>
+  </si>
+  <si>
+    <t>เคมี</t>
+  </si>
+  <si>
+    <t>073</t>
+  </si>
+  <si>
+    <t>ฟิสิกส์</t>
+  </si>
+  <si>
+    <t>074</t>
+  </si>
+  <si>
+    <t>วัสดุศาสตร์</t>
+  </si>
+  <si>
+    <t>075</t>
+  </si>
+  <si>
+    <t>วิศวกรรมพอลิเมอร์</t>
+  </si>
+  <si>
+    <t>076</t>
+  </si>
+  <si>
+    <t>วิศวกรรมพลาสติก</t>
+  </si>
+  <si>
+    <t>077</t>
+  </si>
+  <si>
+    <t>สัตวศาสตร์</t>
+  </si>
+  <si>
+    <t>078</t>
+  </si>
+  <si>
+    <t>การจัดการอุตสาหกรรม</t>
+  </si>
+  <si>
+    <t>079</t>
+  </si>
+  <si>
+    <t>การตลาด</t>
+  </si>
+  <si>
+    <t>080</t>
+  </si>
+  <si>
+    <t>แม่พิมพ์พลาสติก</t>
+  </si>
+  <si>
+    <t>090</t>
+  </si>
+  <si>
+    <t>Computer Engineering</t>
+  </si>
+  <si>
+    <t>091</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>092</t>
+  </si>
+  <si>
+    <t>Journalism</t>
+  </si>
+  <si>
+    <t>093</t>
+  </si>
+  <si>
+    <t>Electronic Information Enginee</t>
+  </si>
+  <si>
+    <t>094</t>
+  </si>
+  <si>
+    <t>Mechanical Engineering</t>
+  </si>
+  <si>
+    <t>095</t>
+  </si>
+  <si>
+    <t>Food Engineering</t>
+  </si>
+  <si>
+    <t>096</t>
+  </si>
+  <si>
+    <t>PR &amp; Advertising</t>
+  </si>
+  <si>
+    <t>097</t>
+  </si>
+  <si>
+    <t>Petrochemicals and Polymeric m</t>
+  </si>
+  <si>
+    <t>098</t>
+  </si>
+  <si>
+    <t>การจัดการโลจิสติกส์</t>
+  </si>
+  <si>
+    <t>099</t>
+  </si>
+  <si>
+    <t>วิศวกรรมโยธา</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีอุตสาหกรรมก่อสร้าง</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีการจัดการสูขภาพด้านสถ</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>บริหารธุรกิจ</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>การท่องเที่ยวและโรงแรม</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>วิศวกรทรัพยากรน้ำ</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>ช่างก่อสร้าง</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีอุตสาหกรรม (เทคโนโลยี</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>Project Management</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>รัฐศาสตร์</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>บริหารทรัพยากรมนุษย์</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>การจัดการทรัพยากรมนุษย์</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>ช่างอิเล็กทรอนิกส์คอมพิวเตอร์</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>บริหารงานก่อสร้าง</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>เทคโนโลยีสถาปัตยกรรม</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>ช่างสำรวจ</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>อาชีวอนามัย และความปลอดภัย</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>ออกแบบศิลปะสถาปัตยกรรมไทย</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>สถาปัตยกรรม</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>เทคนิคยานยนต์</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +549,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,12 +603,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -141,11 +623,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -459,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,10 +980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B270C97-5850-4013-82D8-6BCEB439FCA8}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,6 +1019,638 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B56" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B67" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B68" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B71" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B72" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B73" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B75" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B77" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B78" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B80" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B81" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Course.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Course.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04EAE03-2BDF-41CA-A8D1-0A1D3CFAF8BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B5E47D-E30F-4E90-893B-62EDD59B2C8C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="168">
   <si>
     <t>course_id</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>course_name_en</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 200 ตัว</t>
@@ -525,6 +522,15 @@
   </si>
   <si>
     <t>เทคนิคยานยนต์</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
   </si>
 </sst>
 </file>
@@ -609,7 +615,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -624,6 +630,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -980,32 +989,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B270C97-5850-4013-82D8-6BCEB439FCA8}">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="23.6328125" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1018,640 +1030,649 @@
       <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="F2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="5" t="s">
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="5" t="s">
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B14" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="5" t="s">
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B15" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="5" t="s">
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>34</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B19" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B20" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B22" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B23" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B24" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B26" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B27" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B28" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B30" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>62</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B31" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B32" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B33" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>68</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B34" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B35" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B36" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B37" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B38" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B39" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B41" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B42" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="43" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="44" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B44" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="46" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B46" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>94</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B47" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B48" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="49" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B49" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="50" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B50" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="51" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="52" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B52" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>106</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="53" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="54" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B54" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="55" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="56" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B56" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="57" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B57" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="58" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="59" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B59" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>120</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B60" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>122</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="61" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B61" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="62" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>126</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="63" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>128</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="64" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="65" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>132</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="66" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="67" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B67" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="68" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B68" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="69" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B69" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="70" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B70" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="71" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B71" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" s="5" t="s">
         <v>144</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="72" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B72" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="5" t="s">
         <v>146</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="73" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B73" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="74" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B74" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="75" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B75" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="76" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B76" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="77" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B77" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="78" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B78" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="79" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B79" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="80" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B80" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="81" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B81" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>165</v>
-      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="F1:G1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Course.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import System/(OPR)Import System Course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import System\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97AF905-4092-455E-9FD7-8627552A202C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25125A5F-E74C-44B4-8A45-AA3FC55A1EAA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" activeTab="1" xr2:uid="{1ED7E27F-0D67-4FF4-9076-09C933C4A092}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>course_id</t>
   </si>
@@ -69,12 +69,6 @@
   </si>
   <si>
     <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
-  </si>
-  <si>
-    <t>รหัสบริษัท</t>
-  </si>
-  <si>
-    <t>company_code</t>
   </si>
 </sst>
 </file>
@@ -159,7 +153,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,9 +170,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -497,39 +488,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99626E51-15CF-4387-9B6D-4BDE8FE4C0D2}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.6328125" customWidth="1"/>
-    <col min="2" max="2" width="20.08984375" customWidth="1"/>
-    <col min="3" max="3" width="24.453125" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="25.08984375" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" customWidth="1"/>
-    <col min="8" max="8" width="25.26953125" customWidth="1"/>
-    <col min="9" max="9" width="24" customWidth="1"/>
+    <col min="1" max="1" width="20.08984375" customWidth="1"/>
+    <col min="2" max="2" width="24.453125" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="25.08984375" customWidth="1"/>
+    <col min="5" max="5" width="15.36328125" customWidth="1"/>
+    <col min="6" max="6" width="13.54296875" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" customWidth="1"/>
+    <col min="8" max="8" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -540,388 +527,381 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B270C97-5850-4013-82D8-6BCEB439FCA8}">
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.90625" customWidth="1"/>
-    <col min="2" max="5" width="23.6328125" customWidth="1"/>
-    <col min="7" max="8" width="25.7265625" customWidth="1"/>
+    <col min="1" max="4" width="23.6328125" customWidth="1"/>
+    <col min="6" max="7" width="25.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="61" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" ht="61" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-    </row>
-    <row r="2" spans="1:8" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
       <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B16" s="5"/>
       <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-    </row>
-    <row r="17" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B17" s="5"/>
       <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B18" s="5"/>
       <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-    </row>
-    <row r="19" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B19" s="5"/>
       <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-    </row>
-    <row r="20" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B20" s="5"/>
       <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-    </row>
-    <row r="21" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B21" s="5"/>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-    </row>
-    <row r="22" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-    </row>
-    <row r="23" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-    </row>
-    <row r="24" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-    </row>
-    <row r="25" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-    </row>
-    <row r="26" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-    </row>
-    <row r="27" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B27" s="5"/>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-    </row>
-    <row r="28" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B28" s="5"/>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B29" s="5"/>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-    </row>
-    <row r="30" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B30" s="5"/>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B31" s="5"/>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-    </row>
-    <row r="32" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B32" s="5"/>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-    </row>
-    <row r="33" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-    </row>
-    <row r="34" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-    </row>
-    <row r="35" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B35" s="5"/>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-    </row>
-    <row r="36" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B36" s="5"/>
       <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-    </row>
-    <row r="37" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-    </row>
-    <row r="38" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-    </row>
-    <row r="39" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B39" s="5"/>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-    </row>
-    <row r="40" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-    </row>
-    <row r="41" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B41" s="5"/>
       <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-    </row>
-    <row r="42" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B42" s="5"/>
       <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-    </row>
-    <row r="43" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B43" s="5"/>
       <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-    </row>
-    <row r="44" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="5"/>
       <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B45" s="5"/>
       <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B46" s="5"/>
       <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-    </row>
-    <row r="47" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="5"/>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-    </row>
-    <row r="48" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B48" s="5"/>
       <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-    </row>
-    <row r="49" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-    </row>
-    <row r="50" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="50" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B50" s="5"/>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="51" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B51" s="5"/>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-    </row>
-    <row r="52" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="52" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B52" s="5"/>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-    </row>
-    <row r="53" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="53" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B53" s="5"/>
       <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-    </row>
-    <row r="54" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="54" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-    </row>
-    <row r="55" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="55" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B55" s="5"/>
       <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-    </row>
-    <row r="56" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="56" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B56" s="5"/>
       <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-    </row>
-    <row r="57" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="57" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-    </row>
-    <row r="58" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="58" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-    </row>
-    <row r="59" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="59" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-    </row>
-    <row r="60" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B60" s="5"/>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-    </row>
-    <row r="61" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="61" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B61" s="5"/>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-    </row>
-    <row r="62" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="62" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-    </row>
-    <row r="63" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="63" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B63" s="5"/>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-    </row>
-    <row r="64" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="64" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-    </row>
-    <row r="65" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="65" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-    </row>
-    <row r="66" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B66" s="5"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-    </row>
-    <row r="67" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="67" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B67" s="5"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-    </row>
-    <row r="68" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="68" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B68" s="5"/>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-    </row>
-    <row r="69" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="69" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B69" s="5"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-    </row>
-    <row r="70" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="70" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B70" s="5"/>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
-    </row>
-    <row r="71" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="71" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B71" s="5"/>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-    </row>
-    <row r="72" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="72" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
-    </row>
-    <row r="73" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="73" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B73" s="5"/>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-    </row>
-    <row r="74" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="74" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B74" s="5"/>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-    </row>
-    <row r="75" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="75" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B75" s="5"/>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-    </row>
-    <row r="76" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B76" s="5"/>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-    </row>
-    <row r="77" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B77" s="5"/>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-    </row>
-    <row r="78" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B78" s="5"/>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-    </row>
-    <row r="79" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="5"/>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-    </row>
-    <row r="80" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B80" s="5"/>
       <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-    </row>
-    <row r="81" spans="3:4" ht="15.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="2:3" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B81" s="5"/>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="F1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
